--- a/downloadstuff/template/exportSample.xlsx
+++ b/downloadstuff/template/exportSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangchun.yeh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\fujitsu2\downloadstuff\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDCBB7-A5DB-4B53-82E1-6D524CF45947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8DBDB-FA14-41E9-993A-E19BCCD64D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelUpload" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2634,6 +2642,45 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2661,15 +2708,6 @@
     <xf numFmtId="176" fontId="24" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="24" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2713,36 +2751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3196,28 +3204,28 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.06640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.06640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.06640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.09765625" style="67" customWidth="1"/>
     <col min="8" max="8" width="9" style="32" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="18.06640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.06640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="34.69921875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" style="32" customWidth="1"/>
     <col min="12" max="12" width="28.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.86328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="7.06640625" style="32"/>
+    <col min="13" max="13" width="28.8984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="7.09765625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="14.15" customHeight="1">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="14.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3284,7 @@
       </c>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="14.15" customHeight="1">
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
@@ -3297,7 +3305,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" ht="45.65" customHeight="1">
+    <row r="4" spans="1:12" s="21" customFormat="1" ht="45.6" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
@@ -3312,7 +3320,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:12" s="25" customFormat="1" ht="14.15" customHeight="1">
+    <row r="5" spans="1:12" s="25" customFormat="1" ht="14.1" customHeight="1">
       <c r="A5" s="22">
         <v>10</v>
       </c>
@@ -3341,7 +3349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="29" customFormat="1" ht="14.15" customHeight="1">
+    <row r="6" spans="1:12" s="29" customFormat="1" ht="14.1" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" thickBot="1">
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="35">
         <f>$K$17</f>
         <v>1</v>
@@ -3409,7 +3417,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.5" thickBot="1">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1">
       <c r="A8" s="35">
         <f t="shared" ref="A8:A37" si="0">$K$17</f>
         <v>1</v>
@@ -3485,7 +3493,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.5" thickBot="1">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1">
       <c r="A10" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3524,7 +3532,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3602,7 +3610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.5" thickBot="1">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1">
       <c r="A13" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3643,7 +3651,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.5" thickBot="1">
+    <row r="14" spans="1:12" ht="17.25" thickBot="1">
       <c r="A14" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3723,7 +3731,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.5" thickBot="1">
+    <row r="16" spans="1:12" ht="17.25" thickBot="1">
       <c r="A16" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3764,7 +3772,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.5" thickBot="1">
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4538,7 +4546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="98">
+    <row r="38" spans="1:13" ht="99.75">
       <c r="A38" s="34"/>
       <c r="B38" s="34" t="s">
         <v>57</v>
@@ -4579,150 +4587,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50792DE-3EB2-441B-A43A-2113F7B61688}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AW33" sqref="AW33"/>
       <selection pane="topRight" activeCell="AW33" sqref="AW33"/>
       <selection pane="bottomLeft" activeCell="AW33" sqref="AW33"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="11" style="47" customWidth="1"/>
-    <col min="14" max="14" width="13.06640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.09765625" style="47" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="47" customWidth="1"/>
-    <col min="16" max="16" width="13.06640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.09765625" style="47" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="11" style="47" customWidth="1"/>
-    <col min="21" max="21" width="13.06640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" style="47" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="47" customWidth="1"/>
-    <col min="23" max="23" width="13.06640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.09765625" style="47" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" style="47" customWidth="1"/>
     <col min="25" max="25" width="10" style="55" customWidth="1"/>
     <col min="26" max="26" width="11.59765625" style="55" customWidth="1"/>
-    <col min="27" max="28" width="10.6640625" style="47" customWidth="1"/>
+    <col min="27" max="28" width="10.69921875" style="47" customWidth="1"/>
     <col min="29" max="29" width="10.19921875" style="47" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" style="47" customWidth="1"/>
+    <col min="31" max="31" width="13.69921875" style="47" customWidth="1"/>
     <col min="32" max="32" width="10.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.46484375" style="47" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.06640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13.06640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.09765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.09765625" style="1" customWidth="1"/>
     <col min="37" max="37" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.59765625" style="1" customWidth="1"/>
     <col min="39" max="39" width="9" style="1" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8.796875" style="1"/>
     <col min="43" max="16384" width="8.796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="116" t="s">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="119" t="s">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="116" t="s">
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="117"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="139" t="s">
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="140"/>
-      <c r="AP1" s="140"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
     </row>
     <row r="2" spans="1:42" ht="35.25" customHeight="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="116" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="116" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="116" t="s">
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="116" t="s">
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="116" t="s">
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="116" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="117"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="123" t="s">
+      <c r="S2" s="116"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="126" t="s">
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="128" t="s">
+      <c r="AB2" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="130" t="s">
+      <c r="AC2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="131"/>
+      <c r="AD2" s="141"/>
       <c r="AE2" s="57" t="s">
         <v>9</v>
       </c>
@@ -4732,30 +4740,30 @@
       <c r="AG2" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="141" t="s">
+      <c r="AH2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="132" t="s">
+      <c r="AI2" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="132" t="s">
+      <c r="AJ2" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="134" t="s">
+      <c r="AK2" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="135" t="s">
+      <c r="AL2" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="AM2" s="136" t="s">
+      <c r="AM2" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="138"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="112"/>
     </row>
     <row r="3" spans="1:42" ht="35.25" customHeight="1">
-      <c r="A3" s="115"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="38" t="s">
         <v>12</v>
       </c>
@@ -4831,8 +4839,8 @@
       <c r="Z3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="139"/>
       <c r="AC3" s="42" t="s">
         <v>21</v>
       </c>
@@ -4851,11 +4859,11 @@
         <f>COUNTIF(AG4:AG34,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="133"/>
-      <c r="AJ3" s="133"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
       <c r="AM3" s="60" t="s">
         <v>88</v>
       </c>
@@ -4870,7 +4878,7 @@
       </c>
     </row>
     <row r="4" spans="1:42" ht="33" customHeight="1">
-      <c r="A4" s="143"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B32" si="0">IF(D4=0,"0",ROUND(D4/1.05,0))</f>
         <v>0</v>
@@ -5012,7 +5020,7 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="33" customHeight="1">
-      <c r="A5" s="143"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5154,7 +5162,7 @@
       </c>
     </row>
     <row r="6" spans="1:42" ht="33" customHeight="1">
-      <c r="A6" s="143"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5296,7 +5304,7 @@
       </c>
     </row>
     <row r="7" spans="1:42" ht="33" customHeight="1">
-      <c r="A7" s="143"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5438,7 +5446,7 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="33" customHeight="1">
-      <c r="A8" s="143"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5580,7 +5588,7 @@
       </c>
     </row>
     <row r="9" spans="1:42" ht="33" customHeight="1">
-      <c r="A9" s="143"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5722,7 +5730,7 @@
       </c>
     </row>
     <row r="10" spans="1:42" ht="33" customHeight="1">
-      <c r="A10" s="143"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5864,7 +5872,7 @@
       </c>
     </row>
     <row r="11" spans="1:42" ht="33" customHeight="1">
-      <c r="A11" s="143"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6006,7 +6014,7 @@
       </c>
     </row>
     <row r="12" spans="1:42" ht="33" customHeight="1">
-      <c r="A12" s="143"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6148,7 +6156,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" ht="33" customHeight="1">
-      <c r="A13" s="143"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6290,7 +6298,7 @@
       </c>
     </row>
     <row r="14" spans="1:42" ht="33" customHeight="1">
-      <c r="A14" s="143"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6432,7 +6440,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" ht="33" customHeight="1">
-      <c r="A15" s="143"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6574,7 +6582,7 @@
       </c>
     </row>
     <row r="16" spans="1:42" ht="33" customHeight="1">
-      <c r="A16" s="143"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6716,7 +6724,7 @@
       </c>
     </row>
     <row r="17" spans="1:42" ht="33" customHeight="1">
-      <c r="A17" s="143"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6858,7 +6866,7 @@
       </c>
     </row>
     <row r="18" spans="1:42" ht="33" customHeight="1">
-      <c r="A18" s="143"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7000,7 +7008,7 @@
       </c>
     </row>
     <row r="19" spans="1:42" s="48" customFormat="1" ht="33" customHeight="1">
-      <c r="A19" s="143"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7142,7 +7150,7 @@
       </c>
     </row>
     <row r="20" spans="1:42" ht="33" customHeight="1">
-      <c r="A20" s="143"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7284,7 +7292,7 @@
       </c>
     </row>
     <row r="21" spans="1:42" ht="33" customHeight="1">
-      <c r="A21" s="143"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7426,7 +7434,7 @@
       </c>
     </row>
     <row r="22" spans="1:42" ht="33" customHeight="1">
-      <c r="A22" s="143"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7568,7 +7576,7 @@
       </c>
     </row>
     <row r="23" spans="1:42" ht="33" customHeight="1">
-      <c r="A23" s="143"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7710,7 +7718,7 @@
       </c>
     </row>
     <row r="24" spans="1:42" ht="33" customHeight="1">
-      <c r="A24" s="143"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7852,7 +7860,7 @@
       </c>
     </row>
     <row r="25" spans="1:42" ht="33" customHeight="1">
-      <c r="A25" s="143"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7994,7 +8002,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" ht="33" customHeight="1">
-      <c r="A26" s="143"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8136,7 +8144,7 @@
       </c>
     </row>
     <row r="27" spans="1:42" ht="33" customHeight="1">
-      <c r="A27" s="143"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8278,7 +8286,7 @@
       </c>
     </row>
     <row r="28" spans="1:42" ht="33" customHeight="1">
-      <c r="A28" s="143"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8420,7 +8428,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="33" customHeight="1">
-      <c r="A29" s="143"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8562,7 +8570,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="33" customHeight="1">
-      <c r="A30" s="143"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8704,7 +8712,7 @@
       </c>
     </row>
     <row r="31" spans="1:42" ht="33" customHeight="1">
-      <c r="A31" s="143"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8846,7 +8854,7 @@
       </c>
     </row>
     <row r="32" spans="1:42" ht="33" customHeight="1">
-      <c r="A32" s="143"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8988,7 +8996,7 @@
       </c>
     </row>
     <row r="33" spans="1:42" ht="33" customHeight="1">
-      <c r="A33" s="143"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="3" t="str">
         <f>IF(D33=0,"0",ROUND(D33/1.05,0))</f>
         <v>0</v>
@@ -9130,7 +9138,7 @@
       </c>
     </row>
     <row r="34" spans="1:42" ht="33" customHeight="1">
-      <c r="A34" s="143"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="3" t="str">
         <f>IF(D34=0,"0",ROUND(D34/1.05,0))</f>
         <v>0</v>
@@ -9283,10 +9291,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="D35" s="51">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="D35" s="51"/>
       <c r="E35" s="50">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9295,10 +9300,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G35" s="51">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="G35" s="51"/>
       <c r="H35" s="50">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9307,10 +9309,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="J35" s="51">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="J35" s="51"/>
       <c r="K35" s="50">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9319,10 +9318,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="M35" s="51">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="M35" s="51"/>
       <c r="N35" s="50">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9347,10 +9343,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T35" s="50">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="T35" s="50"/>
       <c r="U35" s="52">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9440,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="16.5" thickTop="1">
+    <row r="36" spans="1:42" ht="17.25" thickTop="1">
       <c r="AF36" s="56">
         <f>SUMIF(AF4:AF34,"&gt;0")</f>
         <v>0</v>
@@ -9460,21 +9453,21 @@
       </c>
       <c r="AG37" s="72"/>
     </row>
-    <row r="38" spans="1:42" ht="16.5" thickBot="1">
+    <row r="38" spans="1:42" ht="17.25" thickBot="1">
       <c r="AK38" s="76"/>
     </row>
     <row r="39" spans="1:42">
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="109" t="s">
+      <c r="AE39" s="120"/>
+      <c r="AF39" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="110" t="s">
+      <c r="AG39" s="122"/>
+      <c r="AH39" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="AI39" s="111"/>
+      <c r="AI39" s="124"/>
       <c r="AK39" s="76"/>
-      <c r="AL39" s="112" t="s">
+      <c r="AL39" s="125" t="s">
         <v>95</v>
       </c>
       <c r="AM39" s="77" t="s">
@@ -9488,7 +9481,7 @@
       </c>
     </row>
     <row r="40" spans="1:42">
-      <c r="AE40" s="108"/>
+      <c r="AE40" s="121"/>
       <c r="AF40" s="73" t="s">
         <v>99</v>
       </c>
@@ -9502,7 +9495,7 @@
         <v>101</v>
       </c>
       <c r="AK40" s="76"/>
-      <c r="AL40" s="112"/>
+      <c r="AL40" s="125"/>
       <c r="AM40" s="80"/>
       <c r="AN40" s="80"/>
       <c r="AO40" s="80">
@@ -9532,7 +9525,7 @@
       </c>
       <c r="AK41" s="76"/>
     </row>
-    <row r="42" spans="1:42" ht="16.5" thickBot="1">
+    <row r="42" spans="1:42" ht="17.25" thickBot="1">
       <c r="AE42" s="84" t="s">
         <v>103</v>
       </c>
@@ -9553,15 +9546,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AE39:AE40"/>
     <mergeCell ref="AF39:AG39"/>
     <mergeCell ref="AH39:AI39"/>
@@ -9578,6 +9562,15 @@
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="AF3">

--- a/downloadstuff/template/exportSample.xlsx
+++ b/downloadstuff/template/exportSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangchun.yeh\Desktop\Data\02提案\20201005富士通內用非內用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangchun.yeh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65865FA-9F3E-4B79-AE80-A3A079D1637A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B9491E-03FA-4873-A9EF-9F9817221AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelUpload" sheetId="3" r:id="rId1"/>
@@ -737,10 +737,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>現金売上高</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>釣銭補充</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1836,6 +1832,11 @@
       <t>卡</t>
     </r>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金+振興券
+売上高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3001,6 +3002,105 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="7" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3019,107 +3119,8 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="7" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3720,7 +3721,7 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3743,90 +3744,90 @@
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="14.15" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="58.5" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="G2" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="14.15" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:12" s="21" customFormat="1" ht="45.65" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="20"/>
@@ -3853,10 +3854,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="24">
         <v>3</v>
@@ -3867,31 +3868,31 @@
     </row>
     <row r="6" spans="1:12" s="29" customFormat="1" ht="14.15" customHeight="1">
       <c r="A6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="G6" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="H6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="I6" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.5" thickBot="1">
@@ -3924,13 +3925,13 @@
         <v>(1900/01)營業收入・現金()</v>
       </c>
       <c r="J7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="81" t="s">
-        <v>49</v>
-      </c>
       <c r="L7" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1">
@@ -3963,13 +3964,13 @@
         <v>(1900/01)營業收入・信用卡(()</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4002,11 +4003,11 @@
         <v>(1900/01)營業收入・外送()</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="82"/>
       <c r="L9" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.5" thickBot="1">
@@ -4039,13 +4040,13 @@
         <v>(1900/01)營業收入・振興券()</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.5" thickBot="1">
@@ -4073,14 +4074,14 @@
         <v>13478</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"外送手續費"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)外送手續費()</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="91"/>
       <c r="L11" s="35"/>
@@ -4110,18 +4111,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I12" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"外送差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)外送差額()</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.5" thickBot="1">
@@ -4149,20 +4150,20 @@
         <v>0</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"客戶/員工折讓"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)客戶/員工折讓()</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.5" thickBot="1">
@@ -4190,18 +4191,18 @@
         <v>0</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"客戶/員工折讓"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)客戶/員工折讓()</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="90"/>
       <c r="L14" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4229,18 +4230,18 @@
         <v>0</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"營業收入"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)營業收入()</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.5" thickBot="1">
@@ -4268,20 +4269,20 @@
         <v>0</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"營業收入"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)營業收入()</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.5" thickBot="1">
@@ -4310,11 +4311,11 @@
         <v>(1900/01)營業收入・折價券()</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="89"/>
       <c r="L17" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4338,18 +4339,18 @@
         <v>0</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"營業收入・折價券"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)營業收入・折價券()</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4373,18 +4374,18 @@
         <v>0</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"營業收入・折價券"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)營業收入・折價券()</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4413,11 +4414,11 @@
         <v>(1900/01)營業收入・客房服務()</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4441,18 +4442,18 @@
         <v>0</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"營業收入・客房服務"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)營業收入・客房服務()</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="34" customFormat="1">
@@ -4478,18 +4479,18 @@
       <c r="F22" s="67"/>
       <c r="G22" s="67"/>
       <c r="H22" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"營業收入・客房服務"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)營業收入・客房服務()</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M22" s="32"/>
     </row>
@@ -4524,11 +4525,11 @@
         <v>(1900/01)現金差額()</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4557,18 +4558,18 @@
         <v>0</v>
       </c>
       <c r="H24" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"現金差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)現金差額()</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4597,18 +4598,18 @@
         <v>0</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"現金差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)現金差額()</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4642,7 +4643,7 @@
         <v>(1900/01)信用卡差額()</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26" s="33"/>
       <c r="L26" s="84"/>
@@ -4673,14 +4674,14 @@
         <v>0</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"信用卡差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)信用卡差額()</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="84"/>
@@ -4711,14 +4712,14 @@
         <v>0</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="35" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"信用卡差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)信用卡差額()</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="84"/>
@@ -4754,7 +4755,7 @@
         <v>(1900/01)振興券差額()</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="84"/>
@@ -4785,18 +4786,18 @@
         <v>0</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"振興券差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)振興券差額()</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4825,14 +4826,14 @@
         <v>0</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"振興券差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)振興券差額()</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="84"/>
@@ -4863,14 +4864,14 @@
       </c>
       <c r="G32" s="93"/>
       <c r="H32" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"現金差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)現金差額()</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="84"/>
@@ -4906,7 +4907,7 @@
         <v>(1900/01)現金差額()</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="84"/>
@@ -4937,14 +4938,14 @@
       </c>
       <c r="G34" s="94"/>
       <c r="H34" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"信用卡差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)信用卡差額()</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="84"/>
@@ -4980,7 +4981,7 @@
         <v>(1900/01)信用卡差額()</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="84"/>
@@ -5011,14 +5012,14 @@
       </c>
       <c r="G36" s="92"/>
       <c r="H36" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="83" t="str">
         <f>"("&amp;TEXT($K$11,"yyyy/mm")&amp;")"&amp;"振興券差額"&amp;"("&amp;$K$14&amp;")"</f>
         <v>(1900/01)振興券差額()</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="84"/>
@@ -5053,32 +5054,32 @@
         <v>(1900/01)振興券差額()</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="98">
       <c r="A38" s="34"/>
       <c r="B38" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="D38" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="E38" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>60</v>
-      </c>
       <c r="F38" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
@@ -5098,12 +5099,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AW33" sqref="AW33"/>
       <selection pane="topRight" activeCell="AW33" sqref="AW33"/>
       <selection pane="bottomLeft" activeCell="AW33" sqref="AW33"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16"/>
@@ -5140,237 +5141,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
-      <c r="A1" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137" t="s">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="151" t="s">
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="137" t="s">
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="139"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="135"/>
       <c r="AL1" s="106"/>
-      <c r="AM1" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
+      <c r="AM1" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="154"/>
+      <c r="AO1" s="154"/>
+      <c r="AP1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="154"/>
     </row>
     <row r="2" spans="1:45" ht="35.25" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="137" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="137" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="137" t="s">
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="138"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="137" t="s">
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="137" t="s">
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="155" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="158" t="s">
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="165" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="160" t="s">
+      <c r="AC2" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="162" t="s">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AF2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="37" t="s">
-        <v>10</v>
-      </c>
       <c r="AG2" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI2" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="AI2" s="140" t="s">
+      <c r="AJ2" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="AJ2" s="164" t="s">
+      <c r="AK2" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="AK2" s="164" t="s">
+      <c r="AL2" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="AL2" s="142" t="s">
+      <c r="AM2" s="163" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN2" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="AM2" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="131" t="s">
+      <c r="AP2" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP2" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="134"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="151"/>
+      <c r="AS2" s="152"/>
     </row>
     <row r="3" spans="1:45" ht="35.25" customHeight="1">
-      <c r="A3" s="150"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="R3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="38" t="s">
+      <c r="S3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Z3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="42" t="s">
+      <c r="AD3" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="AD3" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="AE3" s="103">
         <f>COUNTIF(AE4:AE33,"&lt;&gt;0")</f>
@@ -5388,26 +5389,26 @@
         <f>COUNTIF(AH4:AH34,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="149"/>
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="158"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
       <c r="AO3" s="108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AQ3" s="60" t="s">
+      <c r="AR3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="AS3" s="60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="33" customHeight="1">
@@ -5454,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N4" s="43">
         <f>IF(AND(D4=0,G4=0,J4=0,M4=0),"",B4+E4+H4+K4)</f>
@@ -5529,11 +5530,11 @@
         <v>0</v>
       </c>
       <c r="AI4" s="43">
-        <f>IF(OR(AA4="",AB4="",AF4=""),"",SUM(AA4:AF4))</f>
+        <f>IF(OR(AA4="",AB4="",AF4=""),"",SUM(AA4:AG4))</f>
         <v>52800</v>
       </c>
-      <c r="AJ4" s="3" t="str">
-        <f>IF(M4="","",M4)</f>
+      <c r="AJ4" s="3">
+        <f>IF(M4="","",M4)+AE4</f>
         <v>0</v>
       </c>
       <c r="AK4" s="3">
@@ -5617,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N5" s="43">
         <f t="shared" ref="N5:N34" si="14">IF(AND(D5=0,G5=0,J5=0,M5=0),"",B5+E5+H5+K5)</f>
@@ -5692,19 +5693,19 @@
         <v>0</v>
       </c>
       <c r="AI5" s="43">
-        <f t="shared" ref="AI5:AI34" si="22">IF(OR(AA5="",AB5="",AF5=""),"",SUM(AA5:AF5))</f>
+        <f>IF(OR(AA5="",AB5="",AF5=""),"",SUM(AA5:AG5))</f>
         <v>52800</v>
       </c>
-      <c r="AJ5" s="3" t="str">
-        <f t="shared" ref="AJ5:AJ33" si="23">IF(M5="","",M5)</f>
+      <c r="AJ5" s="3">
+        <f>IF(M5="","",M5)+AE5</f>
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" ref="AK5:AK34" si="24">IF(AND(AI5="",AJ5=""),"",AI5-AJ5)</f>
+        <f t="shared" ref="AK5:AK34" si="22">IF(AND(AI5="",AJ5=""),"",AI5-AJ5)</f>
         <v>52800</v>
       </c>
       <c r="AL5" s="3">
-        <f t="shared" ref="AL5:AL33" si="25">IF(G5="","",G5+AH5)</f>
+        <f t="shared" ref="AL5:AL33" si="23">IF(G5="","",G5+AH5)</f>
         <v>0</v>
       </c>
       <c r="AM5" s="3">
@@ -5720,11 +5721,11 @@
         <v>0</v>
       </c>
       <c r="AP5" s="3">
-        <f t="shared" ref="AP5:AP34" si="26">IF(AR5="","",ROUND(AR5/1.05,0))</f>
+        <f t="shared" ref="AP5:AP34" si="24">IF(AR5="","",ROUND(AR5/1.05,0))</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="3">
-        <f t="shared" ref="AQ5:AQ34" si="27">IF(AP5="","",ROUND(AR5*0.05,0))</f>
+        <f t="shared" ref="AQ5:AQ34" si="25">IF(AP5="","",ROUND(AR5*0.05,0))</f>
         <v>0</v>
       </c>
       <c r="AR5" s="3">
@@ -5732,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="3">
-        <f t="shared" ref="AS5:AS34" si="28">IF(AR5="","",SUM(AP5:AQ5)-AR5)</f>
+        <f t="shared" ref="AS5:AS34" si="26">IF(AR5="","",SUM(AP5:AQ5)-AR5)</f>
         <v>0</v>
       </c>
     </row>
@@ -5769,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="6"/>
@@ -5780,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N6" s="43">
         <f t="shared" si="14"/>
@@ -5855,19 +5856,19 @@
         <v>0</v>
       </c>
       <c r="AI6" s="43">
+        <f t="shared" ref="AI6:AI34" si="27">IF(OR(AA6="",AB6="",AF6=""),"",SUM(AA6:AG6))</f>
+        <v>52800</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" ref="AJ6:AJ34" si="28">IF(M6="","",M6)+AE6</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ6" s="3" t="str">
+      <c r="AL6" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL6" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM6" s="3" t="str">
@@ -5883,11 +5884,11 @@
         <v>0</v>
       </c>
       <c r="AP6" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ6" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR6" s="3">
@@ -5895,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -5932,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="6"/>
@@ -5943,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7" s="43">
         <f t="shared" si="14"/>
@@ -6018,19 +6019,19 @@
         <v>0</v>
       </c>
       <c r="AI7" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ7" s="3" t="str">
+      <c r="AL7" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL7" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM7" s="3" t="str">
@@ -6046,11 +6047,11 @@
         <v>0</v>
       </c>
       <c r="AP7" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR7" s="3">
@@ -6058,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6106,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N8" s="43">
         <f t="shared" si="14"/>
@@ -6181,19 +6182,19 @@
         <v>0</v>
       </c>
       <c r="AI8" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ8" s="3" t="str">
+      <c r="AL8" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL8" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
@@ -6209,11 +6210,11 @@
         <v>0</v>
       </c>
       <c r="AP8" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR8" s="3">
@@ -6221,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6269,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N9" s="43">
         <f t="shared" si="14"/>
@@ -6344,19 +6345,19 @@
         <v>0</v>
       </c>
       <c r="AI9" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ9" s="3" t="str">
+      <c r="AL9" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL9" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM9" s="3">
@@ -6372,11 +6373,11 @@
         <v>0</v>
       </c>
       <c r="AP9" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR9" s="3">
@@ -6384,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6421,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="6"/>
@@ -6432,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N10" s="43">
         <f t="shared" si="14"/>
@@ -6507,19 +6508,19 @@
         <v>0</v>
       </c>
       <c r="AI10" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AL10" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL10" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM10" s="3" t="str">
@@ -6535,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="3">
@@ -6547,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6562,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="43">
         <f t="shared" si="2"/>
@@ -6573,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
@@ -6584,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="6"/>
@@ -6595,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N11" s="43">
         <f t="shared" si="14"/>
@@ -6622,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U11" s="45">
         <f t="shared" si="18"/>
@@ -6670,19 +6671,19 @@
         <v>0</v>
       </c>
       <c r="AI11" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ11" s="3" t="str">
+      <c r="AL11" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL11" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM11" s="3" t="str">
@@ -6698,11 +6699,11 @@
         <v>0</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR11" s="3">
@@ -6710,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6725,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="43">
         <f t="shared" si="2"/>
@@ -6736,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
@@ -6747,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="6"/>
@@ -6758,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N12" s="43">
         <f t="shared" si="14"/>
@@ -6785,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U12" s="45">
         <f t="shared" si="18"/>
@@ -6833,19 +6834,19 @@
         <v>0</v>
       </c>
       <c r="AI12" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ12" s="3" t="str">
+      <c r="AL12" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL12" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM12" s="3" t="str">
@@ -6861,11 +6862,11 @@
         <v>0</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR12" s="3">
@@ -6873,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6888,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="43">
         <f t="shared" si="2"/>
@@ -6899,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
@@ -6910,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="6"/>
@@ -6921,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N13" s="43">
         <f t="shared" si="14"/>
@@ -6948,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U13" s="45">
         <f t="shared" si="18"/>
@@ -6996,19 +6997,19 @@
         <v>0</v>
       </c>
       <c r="AI13" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ13" s="3" t="str">
+      <c r="AL13" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL13" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM13" s="3" t="str">
@@ -7024,11 +7025,11 @@
         <v>0</v>
       </c>
       <c r="AP13" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR13" s="3">
@@ -7036,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -7051,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="43">
         <f t="shared" si="2"/>
@@ -7062,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
@@ -7073,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="6"/>
@@ -7084,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N14" s="43">
         <f t="shared" si="14"/>
@@ -7111,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U14" s="45">
         <f t="shared" si="18"/>
@@ -7159,19 +7160,19 @@
         <v>0</v>
       </c>
       <c r="AI14" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ14" s="3" t="str">
+      <c r="AL14" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL14" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM14" s="3" t="str">
@@ -7187,11 +7188,11 @@
         <v>0</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR14" s="3">
@@ -7199,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -7214,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="43">
         <f t="shared" si="2"/>
@@ -7225,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
@@ -7236,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="6"/>
@@ -7247,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N15" s="43">
         <f t="shared" si="14"/>
@@ -7274,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U15" s="45">
         <f t="shared" si="18"/>
@@ -7322,19 +7323,19 @@
         <v>0</v>
       </c>
       <c r="AI15" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ15" s="3" t="str">
+      <c r="AL15" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM15" s="3" t="str">
@@ -7350,11 +7351,11 @@
         <v>0</v>
       </c>
       <c r="AP15" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR15" s="3">
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -7377,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="43">
         <f t="shared" si="2"/>
@@ -7388,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
@@ -7399,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="6"/>
@@ -7410,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="43">
         <f t="shared" si="14"/>
@@ -7437,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U16" s="45">
         <f t="shared" si="18"/>
@@ -7485,19 +7486,19 @@
         <v>0</v>
       </c>
       <c r="AI16" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ16" s="3" t="str">
+      <c r="AL16" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL16" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM16" s="3" t="str">
@@ -7513,11 +7514,11 @@
         <v>0</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR16" s="3">
@@ -7525,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -7540,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="43">
         <f t="shared" si="2"/>
@@ -7551,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
@@ -7562,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="6"/>
@@ -7573,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N17" s="43">
         <f t="shared" si="14"/>
@@ -7600,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U17" s="45">
         <f t="shared" si="18"/>
@@ -7648,19 +7649,19 @@
         <v>0</v>
       </c>
       <c r="AI17" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ17" s="3" t="str">
+      <c r="AL17" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL17" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM17" s="3" t="str">
@@ -7676,11 +7677,11 @@
         <v>0</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR17" s="3">
@@ -7688,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -7703,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="43">
         <f t="shared" si="2"/>
@@ -7714,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
@@ -7725,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="6"/>
@@ -7736,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N18" s="43">
         <f t="shared" si="14"/>
@@ -7763,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U18" s="45">
         <f t="shared" si="18"/>
@@ -7811,19 +7812,19 @@
         <v>0</v>
       </c>
       <c r="AI18" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ18" s="3" t="str">
+      <c r="AL18" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL18" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM18" s="3" t="str">
@@ -7839,11 +7840,11 @@
         <v>0</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR18" s="3">
@@ -7851,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="43">
         <f t="shared" si="2"/>
@@ -7877,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
@@ -7888,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="6"/>
@@ -7899,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N19" s="43">
         <f t="shared" si="14"/>
@@ -7926,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U19" s="45">
         <f t="shared" si="18"/>
@@ -7974,19 +7975,19 @@
         <v>0</v>
       </c>
       <c r="AI19" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ19" s="3" t="str">
+      <c r="AL19" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL19" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM19" s="3" t="str">
@@ -8002,11 +8003,11 @@
         <v>0</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR19" s="3">
@@ -8014,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8029,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="43">
         <f t="shared" si="2"/>
@@ -8040,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
@@ -8051,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="6"/>
@@ -8062,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N20" s="43">
         <f t="shared" si="14"/>
@@ -8089,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U20" s="45">
         <f t="shared" si="18"/>
@@ -8137,19 +8138,19 @@
         <v>0</v>
       </c>
       <c r="AI20" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ20" s="3" t="str">
+      <c r="AL20" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL20" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM20" s="3" t="str">
@@ -8165,11 +8166,11 @@
         <v>0</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR20" s="3">
@@ -8177,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8192,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="43">
         <f t="shared" si="2"/>
@@ -8203,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
@@ -8214,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="6"/>
@@ -8225,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21" s="43">
         <f t="shared" si="14"/>
@@ -8252,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U21" s="45">
         <f t="shared" si="18"/>
@@ -8300,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="AI21" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ21" s="3" t="str">
+      <c r="AL21" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL21" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM21" s="3" t="str">
@@ -8328,11 +8329,11 @@
         <v>0</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR21" s="3">
@@ -8340,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8355,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="43">
         <f t="shared" si="2"/>
@@ -8366,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
@@ -8377,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="6"/>
@@ -8388,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N22" s="43">
         <f t="shared" si="14"/>
@@ -8415,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U22" s="45">
         <f t="shared" si="18"/>
@@ -8463,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="AI22" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ22" s="3" t="str">
+      <c r="AL22" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL22" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM22" s="3" t="str">
@@ -8491,11 +8492,11 @@
         <v>0</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR22" s="3">
@@ -8503,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8518,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="43">
         <f t="shared" si="2"/>
@@ -8529,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
@@ -8540,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="6"/>
@@ -8551,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N23" s="43">
         <f t="shared" si="14"/>
@@ -8578,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U23" s="45">
         <f t="shared" si="18"/>
@@ -8626,19 +8627,19 @@
         <v>0</v>
       </c>
       <c r="AI23" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ23" s="3" t="str">
+      <c r="AL23" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM23" s="3" t="str">
@@ -8654,11 +8655,11 @@
         <v>0</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR23" s="3">
@@ -8666,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8681,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="43">
         <f t="shared" si="2"/>
@@ -8692,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
@@ -8703,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="6"/>
@@ -8714,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N24" s="43">
         <f t="shared" si="14"/>
@@ -8741,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U24" s="45">
         <f t="shared" si="18"/>
@@ -8789,19 +8790,19 @@
         <v>0</v>
       </c>
       <c r="AI24" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ24" s="3" t="str">
+      <c r="AL24" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL24" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM24" s="3" t="str">
@@ -8817,11 +8818,11 @@
         <v>0</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR24" s="3">
@@ -8829,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8844,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="43">
         <f t="shared" si="2"/>
@@ -8855,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
@@ -8866,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="6"/>
@@ -8877,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N25" s="43">
         <f t="shared" si="14"/>
@@ -8904,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U25" s="45">
         <f t="shared" si="18"/>
@@ -8952,19 +8953,19 @@
         <v>0</v>
       </c>
       <c r="AI25" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ25" s="3" t="str">
+      <c r="AL25" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL25" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM25" s="3" t="str">
@@ -8980,11 +8981,11 @@
         <v>0</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR25" s="3">
@@ -8992,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9007,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="43">
         <f t="shared" si="2"/>
@@ -9018,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
@@ -9029,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="6"/>
@@ -9040,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N26" s="43">
         <f t="shared" si="14"/>
@@ -9067,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U26" s="45">
         <f t="shared" si="18"/>
@@ -9115,19 +9116,19 @@
         <v>0</v>
       </c>
       <c r="AI26" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ26" s="3" t="str">
+      <c r="AL26" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL26" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM26" s="3" t="str">
@@ -9143,11 +9144,11 @@
         <v>0</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR26" s="3">
@@ -9155,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9170,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="43">
         <f t="shared" si="2"/>
@@ -9181,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
@@ -9192,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="6"/>
@@ -9203,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N27" s="43">
         <f t="shared" si="14"/>
@@ -9230,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U27" s="45">
         <f t="shared" si="18"/>
@@ -9278,19 +9279,19 @@
         <v>0</v>
       </c>
       <c r="AI27" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ27" s="3" t="str">
+      <c r="AL27" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL27" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM27" s="3" t="str">
@@ -9306,11 +9307,11 @@
         <v>0</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR27" s="3">
@@ -9318,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9333,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="43">
         <f t="shared" si="2"/>
@@ -9344,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
@@ -9355,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="6"/>
@@ -9366,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N28" s="43">
         <f t="shared" si="14"/>
@@ -9393,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U28" s="45">
         <f t="shared" si="18"/>
@@ -9441,19 +9442,19 @@
         <v>0</v>
       </c>
       <c r="AI28" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ28" s="3" t="str">
+      <c r="AL28" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL28" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM28" s="3" t="str">
@@ -9469,11 +9470,11 @@
         <v>0</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR28" s="3">
@@ -9481,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9496,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="43">
         <f t="shared" si="2"/>
@@ -9507,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="4"/>
@@ -9518,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="6"/>
@@ -9529,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N29" s="43">
         <f t="shared" si="14"/>
@@ -9556,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U29" s="45">
         <f t="shared" si="18"/>
@@ -9604,19 +9605,19 @@
         <v>0</v>
       </c>
       <c r="AI29" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ29" s="3" t="str">
+      <c r="AL29" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM29" s="3" t="str">
@@ -9632,11 +9633,11 @@
         <v>0</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR29" s="3">
@@ -9644,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9659,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="43">
         <f t="shared" si="2"/>
@@ -9670,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="4"/>
@@ -9681,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="6"/>
@@ -9692,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N30" s="43">
         <f t="shared" si="14"/>
@@ -9719,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U30" s="45">
         <f t="shared" si="18"/>
@@ -9767,19 +9768,19 @@
         <v>0</v>
       </c>
       <c r="AI30" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ30" s="3" t="str">
+      <c r="AL30" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL30" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM30" s="3" t="str">
@@ -9795,11 +9796,11 @@
         <v>0</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR30" s="3">
@@ -9807,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9822,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="43">
         <f t="shared" si="2"/>
@@ -9833,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="4"/>
@@ -9844,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="6"/>
@@ -9855,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N31" s="43">
         <f t="shared" si="14"/>
@@ -9882,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U31" s="45">
         <f t="shared" si="18"/>
@@ -9930,19 +9931,19 @@
         <v>0</v>
       </c>
       <c r="AI31" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ31" s="3" t="str">
-        <f>IF(M31="","",M31)</f>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
       <c r="AL31" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AM31" s="3" t="str">
@@ -9958,11 +9959,11 @@
         <v>0</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR31" s="3">
@@ -9970,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -9985,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="43">
         <f t="shared" si="2"/>
@@ -9996,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="4"/>
@@ -10007,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="6"/>
@@ -10018,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N32" s="43">
         <f t="shared" si="14"/>
@@ -10045,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U32" s="45">
         <f t="shared" si="18"/>
@@ -10093,19 +10094,19 @@
         <v>0</v>
       </c>
       <c r="AI32" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ32" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ32" s="3" t="str">
+      <c r="AL32" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL32" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM32" s="3" t="str">
@@ -10121,11 +10122,11 @@
         <v>0</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR32" s="3">
@@ -10133,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -10148,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="43">
         <f>IF(G33=0,"0",ROUND(G33/1.05,0))</f>
@@ -10159,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="3">
         <f>IF(J33=0,"0",ROUND(J33/1.05,0))</f>
@@ -10170,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" s="3">
         <f>IF(M33=0,"0",ROUND(M33/1.05,0))</f>
@@ -10181,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N33" s="43">
         <f t="shared" si="14"/>
@@ -10208,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U33" s="45">
         <f t="shared" si="18"/>
@@ -10256,19 +10257,19 @@
         <v>0</v>
       </c>
       <c r="AI33" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ33" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ33" s="3" t="str">
+      <c r="AL33" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
-      <c r="AL33" s="3">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AM33" s="3" t="str">
@@ -10284,11 +10285,11 @@
         <v>0</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR33" s="3">
@@ -10296,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -10311,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="43">
         <f>IF(G34=0,"0",ROUND(G34/1.05,0))</f>
@@ -10322,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H34" s="3">
         <f>IF(J34=0,"0",ROUND(J34/1.05,0))</f>
@@ -10333,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" s="3">
         <f>IF(M34=0,"0",ROUND(M34/1.05,0))</f>
@@ -10344,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N34" s="43">
         <f t="shared" si="14"/>
@@ -10371,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U34" s="45">
         <f t="shared" ref="U34:V34" si="31">IF(OR(N34="",R34=""),"",N34+R34)</f>
@@ -10419,17 +10420,17 @@
         <v>0</v>
       </c>
       <c r="AI34" s="43">
+        <f t="shared" si="27"/>
+        <v>52800</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="3">
         <f t="shared" si="22"/>
         <v>52800</v>
       </c>
-      <c r="AJ34" s="3" t="str">
-        <f>IF(M34="","",M34)</f>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="3">
-        <f t="shared" si="24"/>
-        <v>52800</v>
-      </c>
       <c r="AL34" s="3">
         <f>IF(G34="","",G34+AH34)</f>
         <v>0</v>
@@ -10447,11 +10448,11 @@
         <v>0</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR34" s="3">
@@ -10459,13 +10460,13 @@
         <v>0</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="32.25" customHeight="1" thickBot="1">
       <c r="A35" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="50">
         <f t="shared" ref="B35:X35" si="32">SUM(B4:B34)</f>
@@ -10509,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N35" s="50">
         <f t="shared" si="32"/>
@@ -10666,56 +10667,56 @@
       <c r="AM38" s="76"/>
     </row>
     <row r="39" spans="1:45" ht="16" customHeight="1">
-      <c r="AE39" s="144"/>
-      <c r="AF39" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG39" s="147"/>
-      <c r="AH39" s="126" t="s">
+      <c r="AE39" s="126"/>
+      <c r="AF39" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG39" s="129"/>
+      <c r="AH39" s="159" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI39" s="159"/>
+      <c r="AJ39" s="160" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK39" s="161"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="AI39" s="126"/>
-      <c r="AJ39" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK39" s="128"/>
-      <c r="AL39" s="76"/>
-      <c r="AM39" s="129" t="s">
+      <c r="AN39" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="AN39" s="109" t="s">
+      <c r="AO39" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="AO39" s="109" t="s">
+      <c r="AP39" s="120" t="s">
         <v>95</v>
-      </c>
-      <c r="AP39" s="120" t="s">
-        <v>96</v>
       </c>
       <c r="AQ39" s="122"/>
       <c r="AR39" s="123"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="AE40" s="145"/>
+      <c r="AE40" s="127"/>
       <c r="AF40" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG40" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH40" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="AG40" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH40" s="100" t="s">
+      <c r="AI40" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="AI40" s="112" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ40" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK40" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="AK40" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM40" s="129"/>
+      <c r="AM40" s="162"/>
       <c r="AN40" s="110">
         <v>3276</v>
       </c>
@@ -10731,7 +10732,7 @@
     </row>
     <row r="41" spans="1:45">
       <c r="AE41" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF41" s="74">
         <f>ROUND(AG41/1.05,0)</f>
@@ -10761,7 +10762,7 @@
     </row>
     <row r="42" spans="1:45" ht="16.5" thickBot="1">
       <c r="AE42" s="78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF42" s="79"/>
       <c r="AG42" s="75">
@@ -10785,6 +10786,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AM39:AM40"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AE39:AE40"/>
     <mergeCell ref="AF39:AG39"/>
     <mergeCell ref="A1:A3"/>
@@ -10799,19 +10811,8 @@
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AH39:AI39"/>
     <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AM39:AM40"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="AF3">
